--- a/ferry/Staten Island Ferry Passenger Counts - by Month/2020/SIF Monthly Ridership_2020_10.xlsx
+++ b/ferry/Staten Island Ferry Passenger Counts - by Month/2020/SIF Monthly Ridership_2020_10.xlsx
@@ -1,24 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\OPEN DATA\Datasets\1. Datasets&amp; BusinessDoc_Manual\Ferry\3. Ferry Ridership\SI Ferry Ridership by Month\2020 SIF Ridership\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Y_Ma2\Desktop\GITHUB\td-trends\ferry\Staten Island Ferry Passenger Counts - by Month\2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16040C07-EDE6-4FB3-B96F-06AE5CD3B753}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11565" windowHeight="8205"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOTALS" sheetId="2" r:id="rId1"/>
     <sheet name="Weekday-Weekend" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -66,9 +75,6 @@
     <t>Combined Total</t>
   </si>
   <si>
-    <t>Total:</t>
-  </si>
-  <si>
     <t>Totals:</t>
   </si>
   <si>
@@ -94,12 +100,15 @@
   </si>
   <si>
     <t>Total October 2020 Ridership:</t>
+  </si>
+  <si>
+    <t>TOTALS:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -264,9 +273,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -276,6 +282,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -555,648 +562,647 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B4:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="2"/>
+    <col min="2" max="2" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
+    <col min="7" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="15">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="15">
         <v>44105</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-    </row>
-    <row r="3" spans="2:6" s="5" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+    </row>
+    <row r="5" spans="2:6" s="5" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C6" s="4">
         <v>44105</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D6" s="3">
         <v>11682</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E6" s="3">
         <v>11645</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F6" s="3">
         <v>23327</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C7" s="4">
         <v>44106</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D7" s="3">
         <v>11618</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E7" s="3">
         <v>11556</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F7" s="3">
         <v>23174</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C8" s="4">
         <v>44107</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D8" s="3">
         <v>10432</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E8" s="3">
         <v>10258</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F8" s="3">
         <v>20690</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C9" s="4">
         <v>44108</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D9" s="3">
         <v>8191</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E9" s="3">
         <v>7506</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F9" s="3">
         <v>15697</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C10" s="4">
         <v>44109</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D10" s="3">
         <v>11938</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E10" s="3">
         <v>11891</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F10" s="3">
         <v>23829</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C11" s="4">
         <v>44110</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D11" s="3">
         <v>12491</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E11" s="3">
         <v>12292</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F11" s="3">
         <v>24783</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C12" s="4">
         <v>44111</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D12" s="3">
         <v>11964</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E12" s="3">
         <v>11743</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F12" s="3">
         <v>23707</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C13" s="4">
         <v>44112</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D13" s="3">
         <v>12079</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E13" s="3">
         <v>11865</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F13" s="3">
         <v>23944</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="3" t="s">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C14" s="4">
         <v>44113</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D14" s="3">
         <v>11856</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E14" s="3">
         <v>12130</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F14" s="3">
         <v>23986</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="3" t="s">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C15" s="4">
         <v>44114</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D15" s="3">
         <v>10839</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E15" s="3">
         <v>10397</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F15" s="3">
         <v>21236</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="3" t="s">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C16" s="4">
         <v>44115</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D16" s="3">
         <v>8282</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E16" s="3">
         <v>7693</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F16" s="3">
         <v>15975</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="3" t="s">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C17" s="4">
         <v>44116</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D17" s="3">
         <v>7986</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E17" s="3">
         <v>7856</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F17" s="3">
         <v>15842</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="3" t="s">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C18" s="4">
         <v>44117</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D18" s="3">
         <v>10630</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E18" s="3">
         <v>10572</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F18" s="3">
         <v>21202</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="3" t="s">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C19" s="4">
         <v>44118</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D19" s="3">
         <v>11930</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E19" s="3">
         <v>11821</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F19" s="3">
         <v>23751</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="3" t="s">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C20" s="4">
         <v>44119</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D20" s="3">
         <v>12038</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E20" s="3">
         <v>11990</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F20" s="3">
         <v>24028</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="3" t="s">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C21" s="4">
         <v>44120</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D21" s="3">
         <v>10257</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E21" s="3">
         <v>9868</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F21" s="3">
         <v>20125</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="3" t="s">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C22" s="4">
         <v>44121</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D22" s="3">
         <v>10550</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E22" s="3">
         <v>9242</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F22" s="3">
         <v>19792</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="3" t="s">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C23" s="4">
         <v>44122</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D23" s="3">
         <v>8087</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E23" s="3">
         <v>7651</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F23" s="3">
         <v>15738</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="3" t="s">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C24" s="4">
         <v>44123</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D24" s="3">
         <v>11116</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E24" s="3">
         <v>10996</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F24" s="3">
         <v>22112</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="3" t="s">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C25" s="4">
         <v>44124</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D25" s="3">
         <v>11084</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E25" s="3">
         <v>10984</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F25" s="3">
         <v>22068</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="3" t="s">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C26" s="4">
         <v>44125</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D26" s="3">
         <v>11371</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E26" s="3">
         <v>11127</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F26" s="3">
         <v>22498</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="3" t="s">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C27" s="4">
         <v>44126</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D27" s="3">
         <v>11349</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E27" s="3">
         <v>11243</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F27" s="3">
         <v>22592</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="3" t="s">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C28" s="4">
         <v>44127</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D28" s="3">
         <v>11837</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E28" s="3">
         <v>11889</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F28" s="3">
         <v>23726</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="3" t="s">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C29" s="4">
         <v>44128</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D29" s="3">
         <v>10151</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E29" s="3">
         <v>9658</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F29" s="3">
         <v>19809</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="3" t="s">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C30" s="4">
         <v>44129</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D30" s="3">
         <v>7625</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E30" s="3">
         <v>6998</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F30" s="3">
         <v>14623</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="3" t="s">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C31" s="4">
         <v>44130</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D31" s="3">
         <v>10405</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E31" s="3">
         <v>10310</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F31" s="3">
         <v>20715</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="3" t="s">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C32" s="4">
         <v>44131</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D32" s="3">
         <v>11453</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E32" s="3">
         <v>11241</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F32" s="3">
         <v>22694</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="3" t="s">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C33" s="4">
         <v>44132</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D33" s="3">
         <v>11034</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E33" s="3">
         <v>10931</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F33" s="3">
         <v>21965</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="3" t="s">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C34" s="4">
         <v>44133</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D34" s="3">
         <v>9912</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E34" s="3">
         <v>9696</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F34" s="3">
         <v>19608</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="3" t="s">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C35" s="4">
         <v>44134</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D35" s="3">
         <v>10520</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E35" s="3">
         <v>10408</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F35" s="3">
         <v>20928</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34" s="3" t="s">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C36" s="4">
         <v>44135</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D36" s="3">
         <v>8666</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E36" s="3">
         <v>8716</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F36" s="3">
         <v>17382</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B35" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35" s="17"/>
-      <c r="D35" s="9">
-        <f>SUM(D4:D34)</f>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="20"/>
+      <c r="C37" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="9">
+        <f>SUM(D6:D36)</f>
         <v>329373</v>
       </c>
-      <c r="E35" s="10">
-        <f>SUM(E4:E34)</f>
+      <c r="E37" s="10">
+        <f>SUM(E6:E36)</f>
         <v>322173</v>
       </c>
-      <c r="F35" s="9">
-        <f t="shared" ref="F35" si="0">SUM(F4:F34)</f>
+      <c r="F37" s="9">
+        <f t="shared" ref="F37" si="0">SUM(F6:F36)</f>
         <v>651546</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B37" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="13">
-        <f>F35</f>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="13">
+        <f>F37</f>
         <v>651546</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B37:E37"/>
+  <mergeCells count="2">
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B39:E39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:K47"/>
   <sheetViews>
     <sheetView topLeftCell="A30" workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="2"/>
+    <col min="2" max="2" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="9.140625" style="2"/>
-    <col min="11" max="11" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="6" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="9.109375" style="2"/>
+    <col min="11" max="11" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
         <v>10</v>
       </c>
@@ -1213,7 +1219,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="str">
         <f t="shared" ref="B4:B25" si="0">CHOOSE(WEEKDAY(C4),"Sunday","Monday","Tuesday","Wednesday","Thursday","Friday","Saturday")</f>
         <v>Thursday</v>
@@ -1232,7 +1238,7 @@
         <v>23327</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Friday</v>
@@ -1251,7 +1257,7 @@
         <v>23174</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Monday</v>
@@ -1270,7 +1276,7 @@
         <v>23829</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Tuesday</v>
@@ -1289,7 +1295,7 @@
         <v>24783</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Wednesday</v>
@@ -1308,7 +1314,7 @@
         <v>23707</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Thursday</v>
@@ -1327,7 +1333,7 @@
         <v>23944</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Friday</v>
@@ -1346,7 +1352,7 @@
         <v>23986</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Monday</v>
@@ -1365,7 +1371,7 @@
         <v>15842</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Tuesday</v>
@@ -1384,7 +1390,7 @@
         <v>21202</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Wednesday</v>
@@ -1403,7 +1409,7 @@
         <v>23751</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Thursday</v>
@@ -1422,7 +1428,7 @@
         <v>24028</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Friday</v>
@@ -1441,7 +1447,7 @@
         <v>20125</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Monday</v>
@@ -1460,7 +1466,7 @@
         <v>22112</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Tuesday</v>
@@ -1479,7 +1485,7 @@
         <v>22068</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Wednesday</v>
@@ -1498,7 +1504,7 @@
         <v>22498</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Thursday</v>
@@ -1517,7 +1523,7 @@
         <v>22592</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Friday</v>
@@ -1536,7 +1542,7 @@
         <v>23726</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Monday</v>
@@ -1555,7 +1561,7 @@
         <v>20715</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Tuesday</v>
@@ -1574,7 +1580,7 @@
         <v>22694</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Wednesday</v>
@@ -1593,7 +1599,7 @@
         <v>21965</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Thursday</v>
@@ -1612,7 +1618,7 @@
         <v>19608</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Friday</v>
@@ -1631,11 +1637,11 @@
         <v>20928</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B26" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="20"/>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="19"/>
       <c r="D26" s="13">
         <f>SUM(D4:D25)</f>
         <v>246550</v>
@@ -1649,43 +1655,43 @@
         <v>490604</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B28" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
       <c r="F28" s="13">
         <f>F26</f>
         <v>490604</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B29" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
       <c r="F29" s="14">
         <f>AVERAGE(F4:F25)</f>
         <v>22300.18181818182</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="F30" s="8"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
       <c r="F31" s="16"/>
     </row>
-    <row r="32" spans="2:11" s="5" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:11" s="5" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B32" s="6" t="s">
         <v>10</v>
       </c>
@@ -1703,7 +1709,7 @@
       </c>
       <c r="K32" s="12"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="str">
         <f t="shared" ref="B33:B41" si="2">CHOOSE(WEEKDAY(C33),"Sunday","Monday","Tuesday","Wednesday","Thursday","Friday","Saturday")</f>
         <v>Saturday</v>
@@ -1722,7 +1728,7 @@
         <v>20690</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Sunday</v>
@@ -1741,7 +1747,7 @@
         <v>15697</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Saturday</v>
@@ -1760,7 +1766,7 @@
         <v>21236</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Sunday</v>
@@ -1779,7 +1785,7 @@
         <v>15975</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Saturday</v>
@@ -1798,7 +1804,7 @@
         <v>19792</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Sunday</v>
@@ -1817,7 +1823,7 @@
         <v>15738</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Saturday</v>
@@ -1836,7 +1842,7 @@
         <v>19809</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Sunday</v>
@@ -1855,7 +1861,7 @@
         <v>14623</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Saturday</v>
@@ -1874,11 +1880,11 @@
         <v>17382</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B42" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C42" s="20"/>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="19"/>
       <c r="D42" s="13">
         <f>SUM(D33:D41)</f>
         <v>82823</v>
@@ -1892,37 +1898,37 @@
         <v>160942</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B44" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
       <c r="F44" s="13">
         <f>F42</f>
         <v>160942</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B46" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
       <c r="F46" s="14">
         <f>AVERAGE(F33,F35,F37,F39,F41)</f>
         <v>19781.8</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B47" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
       <c r="F47" s="14">
         <f>AVERAGE(F34,F36,F38,F40)</f>
         <v>15508.25</v>
@@ -1946,6 +1952,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010056AE8379B00F7343AA85C9CCF3ABC79C" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8ed5a08c4ea4bafe7608c7a0bbf74949">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="670d3029-f9df-404e-98fc-7004dcdec636" xmlns:ns3="5f7ac3ca-9ce0-489a-bc70-1e3f2f642f01" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f6b6dc1f77d7f192bee01dd38b44bce" ns2:_="" ns3:_="">
     <xsd:import namespace="670d3029-f9df-404e-98fc-7004dcdec636"/>
@@ -2124,29 +2145,38 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A789334-2C02-41BA-9464-6193109FBA9E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C369FC4-8F69-45F4-BE2A-14832B3676E5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0E5767B-2613-4BF2-9B66-022A373B2E8F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0E5767B-2613-4BF2-9B66-022A373B2E8F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C369FC4-8F69-45F4-BE2A-14832B3676E5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A789334-2C02-41BA-9464-6193109FBA9E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="670d3029-f9df-404e-98fc-7004dcdec636"/>
+    <ds:schemaRef ds:uri="5f7ac3ca-9ce0-489a-bc70-1e3f2f642f01"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>